--- a/biology/Médecine/Francesco_Serao/Francesco_Serao.xlsx
+++ b/biology/Médecine/Francesco_Serao/Francesco_Serao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Serao, né le 20 septembre 1702 à San Cipriano d'Aversa et mort le 5 aout 1783 à Naples, est un médecin, physicien, géologue et philosophe italien.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir fait ses humanités au collège d’Aversa[1], Serao a été envoyé, à douze ans[2], à Naples, à l’école des jésuites. En 1722, ayant opté pour la carrière médicale, il a commencé ses études sous la direction de Niccolò Cirillo, l’un des professeurs les plus instruits de l’université de Naples[1], et qui pratiquait alors avec succès[2].
-En 1725, une fois reçu docteur, il a ouvert des cours particuliers sur différentes branches de la médecine. Dès cette époque, il a combattu le cartésianisme et la théorie des ferments, qui dominaient alors la science à Naples, et jouissaient même de la protection de Cirillo[3].
-En cherchant à faire triompher surtout la doctrine de Herman Boerhaave et les théories intra-mécaniciennes, il a rendu service à la physiologie en Italie[4]. La clarté de son enseignement, son érudition profonde, l’énergie avec laquelle il défendait les théories nouvelles, lui attiraient, par ailleurs, de nombreux étudiants[1].
-En 1732, il a été agrégé, par voie de concours, au nombre des professeurs de l’Université de Naples[2]. Après y avoir d’abord enseigné l’anatomie et la physiologie, il a enseigné, en 1733, la pathologie, puis en 1740 la clinique[1].
-En 1753, il a été nommé à la première chaire de médecine de Naples. À la suite d’un voyage en Italie du Nord, il a été nommé premier médecin du royaume et médecin particulier du roi Ferdinand IV, en 1778. Lorsque l’archevêque de Thessalonique a fondé la Reale Accademia delle scienze fisiche e matematiche di Napoli (d), Cirillo en est devenu le président, et Serao le secrétaire[1].
-Lorsque le roi Charles V a chargé son Académie des sciences de publier l’histoire de l’éruption effusivo-explosive du Vésuve en 1737, c’est Serao qui a été chargé de la rédaction[1]. Ce traité, rédigé en latin, puis traduit en italien par l’auteur, et en français par Duperron de Castera[2], a longtemps passé pour le plus exact en pareille matière[1].
-Il s’est également livré à une très intéressante étude sur les accidents faussement attribués à la piqure de la tarentule, qui a beaucoup contribué à dissiper les préjugés relatifs aux effets désastreux qui résulteraient de la morsure de cette araignée[1].
-Atteint d’une maladie chronique l’ayant empêché de travailler pendant plusieurs années[5], il n’en est pas moins mort plus qu’octogénaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir fait ses humanités au collège d’Aversa, Serao a été envoyé, à douze ans, à Naples, à l’école des jésuites. En 1722, ayant opté pour la carrière médicale, il a commencé ses études sous la direction de Niccolò Cirillo, l’un des professeurs les plus instruits de l’université de Naples, et qui pratiquait alors avec succès.
+En 1725, une fois reçu docteur, il a ouvert des cours particuliers sur différentes branches de la médecine. Dès cette époque, il a combattu le cartésianisme et la théorie des ferments, qui dominaient alors la science à Naples, et jouissaient même de la protection de Cirillo.
+En cherchant à faire triompher surtout la doctrine de Herman Boerhaave et les théories intra-mécaniciennes, il a rendu service à la physiologie en Italie. La clarté de son enseignement, son érudition profonde, l’énergie avec laquelle il défendait les théories nouvelles, lui attiraient, par ailleurs, de nombreux étudiants.
+En 1732, il a été agrégé, par voie de concours, au nombre des professeurs de l’Université de Naples. Après y avoir d’abord enseigné l’anatomie et la physiologie, il a enseigné, en 1733, la pathologie, puis en 1740 la clinique.
+En 1753, il a été nommé à la première chaire de médecine de Naples. À la suite d’un voyage en Italie du Nord, il a été nommé premier médecin du royaume et médecin particulier du roi Ferdinand IV, en 1778. Lorsque l’archevêque de Thessalonique a fondé la Reale Accademia delle scienze fisiche e matematiche di Napoli (d), Cirillo en est devenu le président, et Serao le secrétaire.
+Lorsque le roi Charles V a chargé son Académie des sciences de publier l’histoire de l’éruption effusivo-explosive du Vésuve en 1737, c’est Serao qui a été chargé de la rédaction. Ce traité, rédigé en latin, puis traduit en italien par l’auteur, et en français par Duperron de Castera, a longtemps passé pour le plus exact en pareille matière.
+Il s’est également livré à une très intéressante étude sur les accidents faussement attribués à la piqure de la tarentule, qui a beaucoup contribué à dissiper les préjugés relatifs aux effets désastreux qui résulteraient de la morsure de cette araignée.
+Atteint d’une maladie chronique l’ayant empêché de travailler pendant plusieurs années, il n’en est pas moins mort plus qu’octogénaire.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vita Nicolai Cirilli, 1738.
 De suffocatis ad vitam revocandis, 1775.
@@ -558,9 +574,43 @@
 De Castrensibus morbis.
 Istoria dell’incendio del Vesuvio accaduto nel mese di maggio 1737, Naples, stamperia di Novello de Bonis, 1738, in-8° et in-4°.
 Lezioni accademiche sulla tarantola, Naples, 1742, in-4°.
-Saggio di considerazioni anatomiche fatte su di un leone ; Descrizione dell’elefante, Osservazioni sopra un fenomeno occorso nell’aprire un cinghiale, Napoli Giuseppe De Bonis, 1766.
-Traductions
-(it) John Pringle, Osservazioni sopra le malattie dell’armate : e memorie sulle sostanze settiche ed antisettiche [« Observations on the diseases of the army in camp and garrison »], Bassano, 1781, in-4° (OCLC 909488426).</t>
+Saggio di considerazioni anatomiche fatte su di un leone ; Descrizione dell’elefante, Osservazioni sopra un fenomeno occorso nell’aprire un cinghiale, Napoli Giuseppe De Bonis, 1766.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Francesco_Serao</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Serao</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(it) John Pringle, Osservazioni sopra le malattie dell’armate : e memorie sulle sostanze settiche ed antisettiche [« Observations on the diseases of the army in camp and garrison »], Bassano, 1781, in-4° (OCLC 909488426).</t>
         </is>
       </c>
     </row>
